--- a/atomoxetine/atomoxetine_Pre_and_Post_Test_Alerts_and_Flow_Chart.xlsx
+++ b/atomoxetine/atomoxetine_Pre_and_Post_Test_Alerts_and_Flow_Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\atomoxetine\CPIC review\Implementation tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaudle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-and Post-Test Alerts" sheetId="21" r:id="rId1"/>
@@ -312,36 +312,6 @@
   </si>
   <si>
     <r>
-      <t>This patient is predicted to be a CYP2D6 poor metabolizer and may be at an increased risk of a atomoxetine-related adverse events.Initiate with a dose of 40 mg/day and if no clinical response and in the absence of adverse events after 2 weeks increase dose to 80 mg/day. If response is inadequate after 2 weeks consider obtaining a plasma concentration 2-4 h after dosing. If concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more information.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This patient is predicted to be a CYP2D6 poor metabolizer and may be at an increased risk of a atomoxetine-related adverse events.Initiate with a dose of 0.5 mg/kg/day and if no clinical response and in the absence of adverse events after 2 weeks, consider obtaining a plasma concentration 4 h after dosing.  If response is inadequate and concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more information.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>This patient is predicted to be a CYP2D6 intermediate metabolizer and may be at an increased risk of a atomoxetine-related adverse events. Initiate with a dose of 0.5 mg/kg/day and if no clinical response and in the absence of adverse events after 2 weeks, consider obtaining a plasma concentration 2-4 h after dosing.  If response is inadequate and concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist</t>
     </r>
     <r>
@@ -366,6 +336,12 @@
   </si>
   <si>
     <t>CDS Alert Text adults</t>
+  </si>
+  <si>
+    <t>This patient is predicted to be a CYP2D6 poor metabolizer and may be at an increased risk of a atomoxetine-related adverse events. Initiate with a dose of 0.5 mg/kg/day and if no clinical response and in the absence of adverse events after 2 weeks, consider obtaining a plasma concentration 4 h after dosing.  If response is inadequate and concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist for more information.</t>
+  </si>
+  <si>
+    <t>This patient is predicted to be a CYP2D6 poor metabolizer and may be at an increased risk of a atomoxetine-related adverse events. Initiate with a dose of 40 mg/day and if no clinical response and in the absence of adverse events after 2 weeks increase dose to 80 mg/day. If response is inadequate after 2 weeks consider obtaining a plasma concentration 2-4 h after dosing. If concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist for more information.</t>
   </si>
 </sst>
 </file>
@@ -609,6 +585,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -617,12 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2990,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3014,19 +2990,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3125,9 +3101,9 @@
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3142,21 +3118,21 @@
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>33</v>
+      <c r="A11" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>34</v>
+      <c r="A12" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="12"/>
     </row>

--- a/atomoxetine/atomoxetine_Pre_and_Post_Test_Alerts_and_Flow_Chart.xlsx
+++ b/atomoxetine/atomoxetine_Pre_and_Post_Test_Alerts_and_Flow_Chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaudle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCD670-C870-3849-B4D5-1B2180D0AC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3255"/>
+    <workbookView xWindow="25080" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-and Post-Test Alerts" sheetId="21" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Pre-Test</t>
   </si>
@@ -153,12 +154,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>1.5-2</t>
-  </si>
-  <si>
-    <t>&gt;2</t>
-  </si>
-  <si>
     <t>CYP2D6 and atomoxetine</t>
   </si>
   <si>
@@ -175,12 +170,6 @@
   </si>
   <si>
     <t>CYP2D6 Poor metabolizer and atomoxetine ordered</t>
-  </si>
-  <si>
-    <t>1 (*10 allele not present)</t>
-  </si>
-  <si>
-    <t>1 (*10 allele present)</t>
   </si>
   <si>
     <r>
@@ -302,12 +291,6 @@
     <t xml:space="preserve">Although this patient is predicted to be a CYP2D6 normal metabolizer,   this patient may not achieve adequate serum concentrations for the intended effect at standard dosing. Initiate with a dose of 40 mg/day and increase to 80 mg/day after 3 days. If no clinical response and in the absence of adverse events after 2 weeks, consider increasing dose to 100 mg/day. If no clinical response observed after 2 weeks, consider obtaining a peak plasma concentration (1 to 2 hours after dose administered). If &lt;200 ng/ml, consider a proportional increase in dose to approach 400 ng/ml. Dosages greater than 100mg/day may be needed to achieve target concentrations. Please consult a clinical pharmacist for more information. </t>
   </si>
   <si>
-    <t>This patient is predicted to have lower than normal CYP2D6 activity and may be at an increased risk of a atomoxetine-related adverse events. Initiate with a dose of 0.5 mg/kg/day and if no clinical response and in the absence of adverse events after 2 weeks, consider obtaining a plasma concentration 2-4 h after dosing.  If response is inadequate and concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist for more information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This patient is predicted to have lower than normal CYP2D6 activity and may be at an increased risk of a atomoxetine-related adverse events. Initiate with a dose of 40 mg/day and if no clinical response and in the absence of adverse events after 2 weeks increase dose to 80 mg/day. If response is inadequate after 2 weeks consider obtaining a plasma concentration 2-4 h after dosing. If concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist for more information. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This patient is predicted to be a CYP2D6 intermediate metabolizer and may be at an increased risk of a atomoxetine-related adverse events. Initiate with a dose of 40 mg/day and if no clinical response and in the absence of adverse events after 2 weeks increase dose to 80 mg/day. If response is inadequate after 2 weeks consider obtaining a plasma concentration 2-4 h after dosing. If concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist for more information. </t>
   </si>
   <si>
@@ -343,14 +326,30 @@
   <si>
     <t>This patient is predicted to be a CYP2D6 poor metabolizer and may be at an increased risk of a atomoxetine-related adverse events. Initiate with a dose of 40 mg/day and if no clinical response and in the absence of adverse events after 2 weeks increase dose to 80 mg/day. If response is inadequate after 2 weeks consider obtaining a plasma concentration 2-4 h after dosing. If concentration is &lt;200 ng/ml, consider a proportional dose increase to achieve a concentration to approach 400 ng/ml. If unacceptable side effects are present at any time, consider a reduction in dose. Please consult a clinical pharmacist for more information.</t>
   </si>
+  <si>
+    <t>0.25-0.75</t>
+  </si>
+  <si>
+    <t>&gt;2.25</t>
+  </si>
+  <si>
+    <t>1.5-2.25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -530,75 +529,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2963,23 +2965,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="68.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="32.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="68.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2990,24 +2992,24 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="24"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>9</v>
@@ -3016,129 +3018,112 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="177.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="177.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="171" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="174" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
+    <row r="6" spans="1:5" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="9" spans="1:5" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>36</v>
-      </c>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3150,39 +3135,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>

--- a/atomoxetine/atomoxetine_Pre_and_Post_Test_Alerts_and_Flow_Chart.xlsx
+++ b/atomoxetine/atomoxetine_Pre_and_Post_Test_Alerts_and_Flow_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCD670-C870-3849-B4D5-1B2180D0AC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B967DF0-4E19-924A-B5B1-F8F496EBC730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="2340" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-and Post-Test Alerts" sheetId="21" r:id="rId1"/>
@@ -333,16 +333,23 @@
     <t>&gt;2.25</t>
   </si>
   <si>
-    <t>1.5-2.25</t>
+    <t>1.25-2.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -529,74 +536,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2968,9 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2999,12 +3007,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3028,7 +3036,7 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3045,7 +3053,7 @@
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
